--- a/data/trans_dic/P52_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P52_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado su situación económica desde la primera encuesta</t>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,08%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,46%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,96; 75,6</t>
+          <t>3,11; 12,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,71; 90,72</t>
+          <t>2,62; 8,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,24; 90,12</t>
+          <t>3,02; 21,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,62; 87,01</t>
+          <t>2,14; 8,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 73,07</t>
+          <t>3,18; 8,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,61; 77,08</t>
+          <t>4,34; 9,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,44; 74,63</t>
+          <t>3,28; 8,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,11; 77,33</t>
+          <t>3,48; 7,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,7; 78,59</t>
+          <t>4,59; 14,25</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,79%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,14%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>8,91%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,1; 63,12</t>
+          <t>3,89; 10,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,95; 82,39</t>
+          <t>11,9; 20,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,96; 58,67</t>
+          <t>6,18; 11,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,34; 61,76</t>
+          <t>5,78; 13,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,67; 68,78</t>
+          <t>6,72; 11,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,89; 62,76</t>
+          <t>7,28; 11,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,86; 58,45</t>
+          <t>5,44; 9,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,64; 74,37</t>
+          <t>10,33; 15,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,36; 57,44</t>
+          <t>7,33; 11,02</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,95%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>5,93%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,43; 72,84</t>
+          <t>3,29; 10,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,89; 61,46</t>
+          <t>4,65; 11,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,71; 41,04</t>
+          <t>3,61; 8,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,49; 80,23</t>
+          <t>6,05; 12,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,87; 67,46</t>
+          <t>8,4; 14,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,49; 44,48</t>
+          <t>4,38; 8,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,08; 71,56</t>
+          <t>5,44; 9,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,6; 61,2</t>
+          <t>7,29; 11,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,44; 39,54</t>
+          <t>4,58; 7,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,3%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,04; 61,97</t>
+          <t>4,54; 9,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,12; 73,68</t>
+          <t>5,58; 11,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 52,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,24; 65,57</t>
+          <t>5,88; 10,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,7; 65,09</t>
+          <t>6,46; 13,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,15; 55,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,85; 61,8</t>
+          <t>5,64; 9,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,49; 67,42</t>
+          <t>6,51; 10,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,27; 52,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 8,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 12,51</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 10,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 9,66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 10,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 8,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 8,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 10,95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 9,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22783</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25485</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53985</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18255</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33515</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>58095</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41038</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>112080</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10566; 43659</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13911; 45816</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21991; 155905</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9006; 33931</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20300; 51234</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39007; 83738</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24977; 64287</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40717; 82548</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>74650; 231846</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58921</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>192601</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>139150</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>85922</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>112721</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>139728</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>144843</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>305322</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>278878</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36299; 96916</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>143612; 246556</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>100261; 194166</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57820; 137250</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>82869; 144308</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>109772; 172425</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>105227; 192421</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>252153; 375532</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>229288; 345003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43165</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61400</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60964</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>65916</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>106753</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>72831</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>109081</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>168153</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>133795</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23578; 72572</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39286; 100045</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39433; 90744</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46516; 93357</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>79114; 134674</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50999; 99767</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>80751; 145420</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>130211; 210189</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>103271; 172083</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>94411</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70305</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>113450</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69866</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>207861</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>140172</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66187; 144875</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48020; 102289</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>82561; 150797</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>49281; 100387</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>161388; 267648</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>105675; 178240</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>219280</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>349792</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>254099</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>283542</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>322855</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>270654</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>502822</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>672647</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>524753</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>172505; 281754</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>287317; 430601</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>195330; 354246</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>231679; 347297</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>277684; 373335</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>226554; 316767</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>427211; 588946</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>595782; 768790</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>453043; 640543</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>